--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -499,4 +500,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,41 +4,77 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
+    <t>Part Number</t>
   </si>
   <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>Vỏ erf 1 pha</t>
+  </si>
+  <si>
+    <t>TH001</t>
+  </si>
+  <si>
+    <t>01.21</t>
+  </si>
+  <si>
+    <t>Module erf 1 pha</t>
+  </si>
+  <si>
+    <t>Cty tnhh Trung Hưng</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
     <t>he</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>2021-06-30</t>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
   </si>
 </sst>
 </file>
@@ -415,13 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +475,82 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2">
+        <v>4400</v>
+      </c>
+      <c r="J2">
+        <v>440000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -449,13 +561,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,25 +586,49 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>5000</v>
+      </c>
+      <c r="I2">
+        <v>4400</v>
+      </c>
+      <c r="J2">
+        <v>220000000</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,56 +4,59 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>Part Number</t>
+    <t>MCU</t>
   </si>
   <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>sản phẩm 2</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>sản phẩm 1</t>
+  </si>
+  <si>
+    <t>222222222</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>22222222222</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
   </si>
 </sst>
 </file>
@@ -430,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,49 +458,45 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>21</v>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -508,13 +507,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,18 +531,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,59 +4,56 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
+    <t>Part Number</t>
   </si>
   <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>sản phẩm 2</t>
-  </si>
-  <si>
-    <t>11111111</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>sản phẩm 1</t>
-  </si>
-  <si>
-    <t>222222222</t>
-  </si>
-  <si>
-    <t>2222222</t>
-  </si>
-  <si>
-    <t>22222222222</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>món hàng 1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
@@ -433,13 +430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,45 +455,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -507,13 +476,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,6 +500,50 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -44,16 +44,25 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>món hàng 1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>kg</t>
+    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
+  </si>
+  <si>
+    <t>PCB RF SOC 1 PHA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MODULE RF 1P SOC</t>
+  </si>
+  <si>
+    <t>TỒN 30/06/2021</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>Cái</t>
   </si>
 </sst>
 </file>
@@ -430,6 +439,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -472,82 +559,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>
--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -44,16 +44,16 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
-  </si>
-  <si>
-    <t>PCB RF SOC 1 PHA</t>
+    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
+  </si>
+  <si>
+    <t>LF_1pha_HT32F5 V1.3_03022021</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>MODULE RF 1P SOC</t>
+    <t>MODULE RF 1P HOLTEK</t>
   </si>
   <si>
     <t>TỒN 30/06/2021</t>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Cái</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P HOTEK</t>
+  </si>
+  <si>
+    <t>CTY TNHH YEAR2000</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>92</v>
+        <v>266704</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -517,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -555,6 +564,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -44,16 +44,16 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
-  </si>
-  <si>
-    <t>LF_1pha_HT32F5 V1.3_03022021</t>
+    <t>DCU_2G(Sim800C)_4G(Sim7600CE)_SF80P20_Cover_1603757518</t>
+  </si>
+  <si>
+    <t>DCU-NEW-V4.2-231020</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>MODULE RF 1P HOLTEK</t>
+    <t>DCU RF 2G</t>
   </si>
   <si>
     <t>TỒN 30/06/2021</t>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>Cái</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P HOTEK</t>
-  </si>
-  <si>
-    <t>CTY TNHH YEAR2000</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>266704</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -526,7 +517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -564,38 +555,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -63,6 +64,57 @@
   </si>
   <si>
     <t>Cái</t>
+  </si>
+  <si>
+    <t>PCB RF 1 PHA STM8S005-Si4432</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P STM8</t>
+  </si>
+  <si>
+    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
+  </si>
+  <si>
+    <t>PCB RF SOC 1 PHA</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P SOC</t>
+  </si>
+  <si>
+    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
+  </si>
+  <si>
+    <t>LF_1pha_HT32F5 V1.3_03022021</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P HOLTEK</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
+  </si>
+  <si>
+    <t>hopdong01</t>
+  </si>
+  <si>
+    <t>sanpham01</t>
+  </si>
+  <si>
+    <t>cty01</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P HOTEK</t>
+  </si>
+  <si>
+    <t>CTY TNHH YEAR2000</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -439,6 +491,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>17200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>266704</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -479,28 +737,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -515,44 +773,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>266604</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -6,14 +6,13 @@
   <sheets>
     <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -45,76 +44,25 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>DCU_2G(Sim800C)_4G(Sim7600CE)_SF80P20_Cover_1603757518</t>
-  </si>
-  <si>
-    <t>DCU-NEW-V4.2-231020</t>
+    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
+  </si>
+  <si>
+    <t>LF_1pha_HT32F5 V1.3_03022021</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>DCU RF 2G</t>
-  </si>
-  <si>
-    <t>TỒN 30/06/2021</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
+    <t>MODULE RF 1P HOTEK</t>
+  </si>
+  <si>
+    <t>CTY TNHH YEAR2000</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
   </si>
   <si>
     <t>Cái</t>
-  </si>
-  <si>
-    <t>PCB RF 1 PHA STM8S005-Si4432</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P STM8</t>
-  </si>
-  <si>
-    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
-  </si>
-  <si>
-    <t>PCB RF SOC 1 PHA</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P SOC</t>
-  </si>
-  <si>
-    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
-  </si>
-  <si>
-    <t>LF_1pha_HT32F5 V1.3_03022021</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P HOLTEK</t>
-  </si>
-  <si>
-    <t>Danh</t>
-  </si>
-  <si>
-    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
-  </si>
-  <si>
-    <t>hopdong01</t>
-  </si>
-  <si>
-    <t>sanpham01</t>
-  </si>
-  <si>
-    <t>cty01</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P HOTEK</t>
-  </si>
-  <si>
-    <t>CTY TNHH YEAR2000</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -491,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -527,166 +475,6 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>17200</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>92</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>266704</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -737,22 +525,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -765,75 +553,6 @@
       </c>
       <c r="J2">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>266604</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -44,13 +45,73 @@
     <t>Thành Tiền</t>
   </si>
   <si>
+    <t>DCU_2G(Sim800C)_4G(Sim7600CE)_SF80P20_Cover_1603757518</t>
+  </si>
+  <si>
+    <t>DCU-NEW-V4.2-231020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DCU RF 2G</t>
+  </si>
+  <si>
+    <t>TỒN 30/06/2021</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>danh</t>
+  </si>
+  <si>
+    <t>PCB RF 1 PHA STM8S005-Si4432</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P STM8</t>
+  </si>
+  <si>
+    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
+  </si>
+  <si>
+    <t>PCB RF SOC 1 PHA</t>
+  </si>
+  <si>
+    <t>MODULE RF 1P SOC</t>
+  </si>
+  <si>
     <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
   </si>
   <si>
     <t>LF_1pha_HT32F5 V1.3_03022021</t>
   </si>
   <si>
-    <t/>
+    <t>MODULE RF 1P HOLTEK</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
+  </si>
+  <si>
+    <t>GRM1555C1H271JA01D</t>
+  </si>
+  <si>
+    <t>sohopdong01</t>
+  </si>
+  <si>
+    <t>sanpham02</t>
+  </si>
+  <si>
+    <t>cty01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>cái</t>
   </si>
   <si>
     <t>MODULE RF 1P HOTEK</t>
@@ -60,9 +121,6 @@
   </si>
   <si>
     <t>2021-07-01</t>
-  </si>
-  <si>
-    <t>Cái</t>
   </si>
 </sst>
 </file>
@@ -439,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -475,6 +533,166 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>17200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>266704</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -525,22 +743,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -553,6 +771,97 @@
       </c>
       <c r="J2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>-17200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>266604</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>17200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,14 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
@@ -45,12 +45,12 @@
     <t>Thành Tiền</t>
   </si>
   <si>
+    <t>DCU-NEW-V4.2-231020</t>
+  </si>
+  <si>
     <t>DCU_2G(Sim800C)_4G(Sim7600CE)_SF80P20_Cover_1603757518</t>
   </si>
   <si>
-    <t>DCU-NEW-V4.2-231020</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -66,37 +66,28 @@
     <t>Cái</t>
   </si>
   <si>
-    <t>danh</t>
-  </si>
-  <si>
-    <t>PCB RF 1 PHA STM8S005-Si4432</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P STM8</t>
+    <t>PCB RF SOC 1 PHA</t>
   </si>
   <si>
     <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
   </si>
   <si>
-    <t>PCB RF SOC 1 PHA</t>
-  </si>
-  <si>
     <t>MODULE RF 1P SOC</t>
   </si>
   <si>
+    <t>LF_1pha_HT32F5 V1.3_03022021</t>
+  </si>
+  <si>
     <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
   </si>
   <si>
-    <t>LF_1pha_HT32F5 V1.3_03022021</t>
-  </si>
-  <si>
     <t>MODULE RF 1P HOLTEK</t>
   </si>
   <si>
+    <t>GRM1555C1H271JA01D</t>
+  </si>
+  <si>
     <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
-  </si>
-  <si>
-    <t>GRM1555C1H271JA01D</t>
   </si>
   <si>
     <t>sohopdong01</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -590,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>17200</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -622,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>266704</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -639,59 +630,27 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>266704</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>21</v>
-      </c>
-      <c r="J6">
         <v>252</v>
       </c>
     </row>
@@ -743,22 +702,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -781,7 +740,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -789,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -800,7 +759,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -811,10 +770,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>-17200</v>
+        <v>266604</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -822,10 +781,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>266604</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -833,35 +792,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>17200</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Part Number</t>
   </si>
@@ -43,75 +43,6 @@
   </si>
   <si>
     <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>DCU-NEW-V4.2-231020</t>
-  </si>
-  <si>
-    <t>DCU_2G(Sim800C)_4G(Sim7600CE)_SF80P20_Cover_1603757518</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DCU RF 2G</t>
-  </si>
-  <si>
-    <t>TỒN 30/06/2021</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>PCB RF SOC 1 PHA</t>
-  </si>
-  <si>
-    <t>PCB -RF_SOC 2021.2.19( PHIÊN BẢN CŨ)</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P SOC</t>
-  </si>
-  <si>
-    <t>LF_1pha_HT32F5 V1.3_03022021</t>
-  </si>
-  <si>
-    <t>PCB - RF_1pha_HT32F5_Si4432_E19_E49_ESRF_V1.3- 03022021 Size 45x65mm</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P HOLTEK</t>
-  </si>
-  <si>
-    <t>GRM1555C1H271JA01D</t>
-  </si>
-  <si>
-    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
-  </si>
-  <si>
-    <t>sohopdong01</t>
-  </si>
-  <si>
-    <t>sanpham02</t>
-  </si>
-  <si>
-    <t>cty01</t>
-  </si>
-  <si>
-    <t>2021-08-01</t>
-  </si>
-  <si>
-    <t>cái</t>
-  </si>
-  <si>
-    <t>MODULE RF 1P HOTEK</t>
-  </si>
-  <si>
-    <t>CTY TNHH YEAR2000</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -488,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -526,134 +457,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>92</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>266704</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>21</v>
-      </c>
-      <c r="J5">
-        <v>252</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -662,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -700,38 +503,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -740,7 +511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -757,50 +528,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>266604</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,45 +4,47 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
+    <t>LED Green</t>
+  </si>
+  <si>
+    <t>mcu01</t>
+  </si>
+  <si>
+    <t>sohopdong01</t>
+  </si>
+  <si>
+    <t>chip01</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
   </si>
 </sst>
 </file>
@@ -419,13 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,17 +446,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -465,13 +475,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,43 +499,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,47 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>LED Green</t>
-  </si>
-  <si>
-    <t>mcu01</t>
-  </si>
-  <si>
-    <t>sohopdong01</t>
-  </si>
-  <si>
-    <t>chip01</t>
-  </si>
-  <si>
-    <t>2021-09-02</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
   </si>
 </sst>
 </file>
@@ -421,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,25 +444,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -475,13 +465,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,6 +489,43 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Part Number</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>GRM219R61A106KE44D</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0805 10uF 10V 10% X5R</t>
+  </si>
+  <si>
+    <t>sohopdong01</t>
+  </si>
+  <si>
+    <t>sanpham01</t>
+  </si>
+  <si>
+    <t>cty01</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>Cái</t>
   </si>
 </sst>
 </file>
@@ -419,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -455,6 +476,38 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +564,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -528,6 +581,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,66 +4,50 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>GRM219R61A106KE44D</t>
-  </si>
-  <si>
-    <t>Ceramic Cap 0805 10uF 10V 10% X5R</t>
-  </si>
-  <si>
-    <t>sohopdong01</t>
-  </si>
-  <si>
-    <t>sanpham01</t>
-  </si>
-  <si>
-    <t>cty01</t>
-  </si>
-  <si>
-    <t>2021-09-11</t>
-  </si>
-  <si>
-    <t>Cái</t>
+    <t>danh</t>
+  </si>
+  <si>
+    <t>mcu01</t>
+  </si>
+  <si>
+    <t>16/2021/DT-FE - 03/06/2021</t>
+  </si>
+  <si>
+    <t>chip01</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>sinh</t>
   </si>
 </sst>
 </file>
@@ -440,13 +424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,49 +449,45 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>252</v>
+      <c r="F3">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -518,13 +498,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,54 +522,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,50 +4,71 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>danh</t>
-  </si>
-  <si>
-    <t>mcu01</t>
-  </si>
-  <si>
-    <t>16/2021/DT-FE - 03/06/2021</t>
-  </si>
-  <si>
-    <t>chip01</t>
-  </si>
-  <si>
-    <t>2021-09-26</t>
-  </si>
-  <si>
-    <t>sinh</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>LB1117AATB-3.3</t>
+  </si>
+  <si>
+    <t>1A LOW DROPOUT LINEAR REGULATOR</t>
+  </si>
+  <si>
+    <t>5445</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>edsrf</t>
+  </si>
+  <si>
+    <t>4654-06-05</t>
+  </si>
+  <si>
+    <t>cai</t>
+  </si>
+  <si>
+    <t>543654.0000</t>
+  </si>
+  <si>
+    <t>234858528.0000</t>
   </si>
 </sst>
 </file>
@@ -424,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,45 +470,49 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1200</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>432</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -498,13 +523,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,6 +547,18 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,71 +4,57 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>mcu</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
     <t>Đơn Vị Tính</t>
   </si>
   <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>LB1117AATB-3.3</t>
-  </si>
-  <si>
-    <t>1A LOW DROPOUT LINEAR REGULATOR</t>
-  </si>
-  <si>
-    <t>5445</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t>edsrf</t>
-  </si>
-  <si>
-    <t>4654-06-05</t>
-  </si>
-  <si>
-    <t>cai</t>
-  </si>
-  <si>
-    <t>543654.0000</t>
-  </si>
-  <si>
-    <t>234858528.0000</t>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -445,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,49 +456,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>432</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+      <c r="F2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -523,13 +485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,17 +510,61 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -48,7 +48,10 @@
     <t>2021-10-05</t>
   </si>
   <si>
-    <t>2021-10-06</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
   </si>
   <si>
     <t>Đơn Vị Tính</t>
@@ -474,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -519,16 +522,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,60 +4,126 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>smooth</t>
-  </si>
-  <si>
-    <t>mcu</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>tinh</t>
+  </si>
+  <si>
+    <t>yeu</t>
   </si>
   <si>
     <t>da</t>
   </si>
   <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021-10-07</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>phai</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>4444.0000</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>mùa</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>mang</t>
+  </si>
+  <si>
+    <t>nho</t>
+  </si>
+  <si>
+    <t>anh</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>GJM1555C1H2R7CB01D</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0402 2.7pF 50V +-0.25p NP0</t>
+  </si>
+  <si>
+    <t>sohopdong01</t>
+  </si>
+  <si>
+    <t>sanpham01</t>
+  </si>
+  <si>
+    <t>cty01</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>252.0000</t>
+  </si>
+  <si>
+    <t>198.0000</t>
   </si>
 </sst>
 </file>
@@ -434,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +525,177 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>2222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -488,13 +706,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,25 +731,49 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +784,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -550,24 +792,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Part Number</t>
   </si>
@@ -45,85 +45,52 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>tinh</t>
-  </si>
-  <si>
-    <t>yeu</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>phai</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
+    <t>GRM1555C1H271JA01D</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
+  </si>
+  <si>
+    <t>sohopdong01</t>
+  </si>
+  <si>
+    <t>sanpham01</t>
+  </si>
+  <si>
+    <t>cty01</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
   </si>
   <si>
     <t>cái</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>4444.0000</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
-    <t>ra</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>mùa</t>
-  </si>
-  <si>
-    <t>thu</t>
-  </si>
-  <si>
-    <t>mang</t>
-  </si>
-  <si>
-    <t>nho</t>
-  </si>
-  <si>
-    <t>anh</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>GJM1555C1H2R7CB01D</t>
-  </si>
-  <si>
-    <t>Ceramic Cap 0402 2.7pF 50V +-0.25p NP0</t>
-  </si>
-  <si>
-    <t>sohopdong01</t>
-  </si>
-  <si>
-    <t>sanpham01</t>
-  </si>
-  <si>
-    <t>cty01</t>
-  </si>
-  <si>
-    <t>2021-10-09</t>
-  </si>
-  <si>
-    <t>21.0000</t>
+    <t>21.00</t>
   </si>
   <si>
     <t>252.0000</t>
   </si>
   <si>
-    <t>198.0000</t>
+    <t>S1M-13-F</t>
+  </si>
+  <si>
+    <t>S1M</t>
+  </si>
+  <si>
+    <t>sohopdong02</t>
+  </si>
+  <si>
+    <t>sanpham02</t>
+  </si>
+  <si>
+    <t>cty02</t>
+  </si>
+  <si>
+    <t>10.69</t>
+  </si>
+  <si>
+    <t>235.1800</t>
   </si>
 </sst>
 </file>
@@ -500,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -561,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>2222</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -575,16 +542,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -593,109 +560,13 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -742,38 +613,6 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +623,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -803,10 +642,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -814,34 +653,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2123</v>
-      </c>
-      <c r="C5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,93 +4,36 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
     <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>GRM1555C1H271JA01D</t>
-  </si>
-  <si>
-    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
-  </si>
-  <si>
-    <t>sohopdong01</t>
-  </si>
-  <si>
-    <t>sanpham01</t>
-  </si>
-  <si>
-    <t>cty01</t>
-  </si>
-  <si>
-    <t>2021-10-10</t>
-  </si>
-  <si>
-    <t>cái</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>252.0000</t>
-  </si>
-  <si>
-    <t>S1M-13-F</t>
-  </si>
-  <si>
-    <t>S1M</t>
-  </si>
-  <si>
-    <t>sohopdong02</t>
-  </si>
-  <si>
-    <t>sanpham02</t>
-  </si>
-  <si>
-    <t>cty02</t>
-  </si>
-  <si>
-    <t>10.69</t>
-  </si>
-  <si>
-    <t>235.1800</t>
   </si>
 </sst>
 </file>
@@ -467,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,82 +434,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -577,13 +444,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,18 +468,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -631,35 +486,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Tên Hàng</t>
   </si>
@@ -33,7 +33,31 @@
     <t>Số Lượng</t>
   </si>
   <si>
+    <t>File name: RF_SOC 2021.2.19</t>
+  </si>
+  <si>
+    <t>mcu01</t>
+  </si>
+  <si>
+    <t>006-21/DT-BS</t>
+  </si>
+  <si>
+    <t>chip01</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
     <t>Đơn Vị Tính</t>
+  </si>
+  <si>
+    <t>EFR32 408-I V. 2.2</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -410,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
@@ -434,6 +458,26 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -486,13 +530,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,60 +4,72 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>File name: RF_SOC 2021.2.19</t>
-  </si>
-  <si>
-    <t>mcu01</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>LQW15AN27NJ00D</t>
+  </si>
+  <si>
+    <t>Inductor 27nH 0402</t>
   </si>
   <si>
     <t>006-21/DT-BS</t>
   </si>
   <si>
-    <t>chip01</t>
-  </si>
-  <si>
-    <t>2021-10-11</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>EFR32 408-I V. 2.2</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>RF SOC 1PHA &amp; 3PHA</t>
+  </si>
+  <si>
+    <t>BLUE STAR ELECTRONICS Co., LIMITED</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>15200.0000</t>
   </si>
 </sst>
 </file>
@@ -434,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +471,49 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>760000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -488,13 +524,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,6 +548,18 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -530,24 +578,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>760000</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,72 +4,60 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t>Tên Hàng</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Sổ Hợp Đồng</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Ngày Nhập</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>RES 0R 5% 3/4W 2010</t>
+  </si>
+  <si>
+    <t>mcu01</t>
+  </si>
+  <si>
+    <t>006-21/DT-BS</t>
+  </si>
+  <si>
+    <t>chip01</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
   <si>
     <t>Part Number</t>
   </si>
   <si>
-    <t>Tên Hàng</t>
-  </si>
-  <si>
-    <t>Sổ Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
-  </si>
-  <si>
-    <t>Ngày Nhập</t>
-  </si>
-  <si>
     <t>Đơn Vị Tính</t>
   </si>
   <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>LQW15AN27NJ00D</t>
-  </si>
-  <si>
-    <t>Inductor 27nH 0402</t>
-  </si>
-  <si>
-    <t>006-21/DT-BS</t>
-  </si>
-  <si>
-    <t>RF SOC 1PHA &amp; 3PHA</t>
-  </si>
-  <si>
-    <t>BLUE STAR ELECTRONICS Co., LIMITED</t>
-  </si>
-  <si>
-    <t>2021-10-05</t>
-  </si>
-  <si>
-    <t>cái</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>15200.0000</t>
+    <t>AC2010JK-070RL</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -446,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,49 +459,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>760000</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+      <c r="F2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -524,13 +488,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,18 +512,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -578,24 +530,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>760000</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,60 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>RES 0R 5% 3/4W 2010</t>
-  </si>
-  <si>
-    <t>mcu01</t>
-  </si>
-  <si>
-    <t>006-21/DT-BS</t>
-  </si>
-  <si>
-    <t>chip01</t>
-  </si>
-  <si>
-    <t>2021-10-11</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>AC2010JK-070RL</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
   </si>
 </sst>
 </file>
@@ -434,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +444,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -488,13 +465,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,6 +489,18 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -530,24 +519,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,45 +4,54 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Công Ty Nhập</t>
+    <t>Chip</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>RES 0R 5% 3/4W 2010</t>
+  </si>
+  <si>
+    <t>mcu01</t>
+  </si>
+  <si>
+    <t>006-21/DT-BS</t>
+  </si>
+  <si>
+    <t>chip01</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
     <t>Đơn Vị Tính</t>
   </si>
   <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
-    <t>Đơn Giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -419,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,17 +453,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -465,13 +482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,18 +506,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +516,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -522,10 +527,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,54 +4,74 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>RES 0R 5% 3/4W 2010</t>
-  </si>
-  <si>
-    <t>mcu01</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>A1015</t>
+  </si>
+  <si>
+    <t>PNP 600mW, ECB</t>
   </si>
   <si>
     <t>006-21/DT-BS</t>
   </si>
   <si>
-    <t>chip01</t>
-  </si>
-  <si>
-    <t>2021-10-11</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>RF SOC 1PHA &amp; 3PHA</t>
+  </si>
+  <si>
+    <t>BLUE STAR ELECTRONICS Co., LIMITED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>543.5700</t>
+  </si>
+  <si>
+    <t>138066.7800</t>
   </si>
 </sst>
 </file>
@@ -428,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,24 +473,21 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -482,13 +499,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,41 +524,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/My Excel File.xlsx
+++ b/My Excel File.xlsx
@@ -4,60 +4,501 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="nhap-thanhpham" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="xuat-thanhpham" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="ton-thanhpham" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="nhap-linhkien" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="xuat-linhkien" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="ton-linhkien" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="162">
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Tên Hàng</t>
   </si>
   <si>
-    <t>MCU</t>
-  </si>
-  <si>
     <t>Sổ Hợp Đồng</t>
   </si>
   <si>
-    <t>Chip</t>
+    <t>Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Công Ty Nhập</t>
   </si>
   <si>
     <t>Ngày Nhập</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>RES 0R 5% 3/4W 2010</t>
-  </si>
-  <si>
-    <t>mcu01</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>RC0805JR-07330KL</t>
+  </si>
+  <si>
+    <t>Resistor, 330K Ohm 5% Tolerance, 0805, 1/8W</t>
+  </si>
+  <si>
+    <t>051-21/DT-MXC</t>
+  </si>
+  <si>
+    <t>Modem + DCU</t>
+  </si>
+  <si>
+    <t>MX-CHIPS ELECTRONICS LTD</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>12.6000</t>
+  </si>
+  <si>
+    <t>A1015</t>
+  </si>
+  <si>
+    <t>PNP 600mW, ECB</t>
+  </si>
+  <si>
+    <t>0.2500</t>
+  </si>
+  <si>
+    <t>1750.0000</t>
+  </si>
+  <si>
+    <t>ESDA6V1SC6</t>
+  </si>
+  <si>
+    <t>Quad Transil array for ESD protection</t>
+  </si>
+  <si>
+    <t>0.0800</t>
+  </si>
+  <si>
+    <t>1120.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-0756KL</t>
+  </si>
+  <si>
+    <t>Resistor, 56k Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>25.2000</t>
+  </si>
+  <si>
+    <t>CL21C471JBANNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 470pF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>0.0060</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMQP104K275XXC3B1015 </t>
+  </si>
+  <si>
+    <t>CJE Safety Regulations CIS 275VAC 104K 0 1UF</t>
+  </si>
+  <si>
+    <t>0.1000</t>
+  </si>
+  <si>
+    <t>2100.0000</t>
+  </si>
+  <si>
+    <t>CS65ZU2GA102M</t>
+  </si>
+  <si>
+    <t>1nF 440VAC Cer Cap Z5U Radial, Dia (9.50mm)</t>
+  </si>
+  <si>
+    <t>700.0000</t>
+  </si>
+  <si>
+    <t>CL21C220JBANNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 22pF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>420.0000</t>
+  </si>
+  <si>
+    <t>CL21B102KBANNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 1nF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>336.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-071KL</t>
+  </si>
+  <si>
+    <t>Resistor, 1K Ohm , 5%, 0805, 1/8 W</t>
+  </si>
+  <si>
+    <t>579.6000</t>
+  </si>
+  <si>
+    <t>SMBJ10CA</t>
+  </si>
+  <si>
+    <t>TVS DIODE 20VWM 32.4VC SMF</t>
+  </si>
+  <si>
+    <t>0.0400</t>
+  </si>
+  <si>
+    <t>RC0805JR-07100KL</t>
+  </si>
+  <si>
+    <t>Resistor, 100K Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>50.4000</t>
+  </si>
+  <si>
+    <t>SSA34-E3/61T</t>
+  </si>
+  <si>
+    <t>Diode Schottky 40V 3A Surface Mount DO-214AC</t>
+  </si>
+  <si>
+    <t>0.1700</t>
+  </si>
+  <si>
+    <t>1190.0000</t>
+  </si>
+  <si>
+    <t>CL21A106KAYNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 10uF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>0.0190</t>
+  </si>
+  <si>
+    <t>266.0000</t>
+  </si>
+  <si>
+    <t>25-104HX0507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 100nF 25V </t>
+  </si>
+  <si>
+    <t>0.0200</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-07560RL</t>
+  </si>
+  <si>
+    <t>Resistor, 560 Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>Power-RT05 - 3W V1.2</t>
+  </si>
+  <si>
+    <t>PCB - Power- Hilink and RT05 - 3W V1.2 - 02082021 Size 36x79mm</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>7000.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-070RL</t>
+  </si>
+  <si>
+    <t>Resistor, 0 Ohm 5% Tolerance, 0805, 1/8W</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-07120KL</t>
+  </si>
+  <si>
+    <t>Resistor, 120K Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>37.8000</t>
+  </si>
+  <si>
+    <t>Modem - HT32-4G V1.3.1-200721</t>
+  </si>
+  <si>
+    <t>PCB - Modem - HT32F52367(12366) - 7600E-V1.3.1 – 20072021; Size: (53.09x59.08) mm</t>
+  </si>
+  <si>
+    <t>0.4500</t>
+  </si>
+  <si>
+    <t>6300.0000</t>
+  </si>
+  <si>
+    <t>CL21B104KBCNNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 100nF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t>0.0045</t>
+  </si>
+  <si>
+    <t>1592.9999</t>
+  </si>
+  <si>
+    <t>CL31B106KAHNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 10uF 25V X7R 1206</t>
+  </si>
+  <si>
+    <t>0.0300</t>
+  </si>
+  <si>
+    <t>RC0805JR-0747KL</t>
+  </si>
+  <si>
+    <t>Resistor, 47K Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>KP104J2J1006</t>
+  </si>
+  <si>
+    <t>CAP FILM 0.1UF 20% 630VDC RADIAL</t>
+  </si>
+  <si>
+    <t>0.0650</t>
+  </si>
+  <si>
+    <t>910.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS34 </t>
+  </si>
+  <si>
+    <t>Diode Standard (1kV) 1A Surface Mount SMA (DO-214AC)</t>
+  </si>
+  <si>
+    <t>0.0500</t>
+  </si>
+  <si>
+    <t>1400.0000</t>
+  </si>
+  <si>
+    <t>DCU-NewBox V2.0 19072021</t>
+  </si>
+  <si>
+    <t>PCB - Main-DCU-NewBox-V2.0-19072021 Size: (203x167)mm</t>
+  </si>
+  <si>
+    <t>3.8500</t>
+  </si>
+  <si>
+    <t>26950.0000</t>
+  </si>
+  <si>
+    <t>PC817X3NIP0F</t>
+  </si>
+  <si>
+    <t>OPTOISO 5KV TRANS 4SOP</t>
+  </si>
+  <si>
+    <t>0.0700</t>
+  </si>
+  <si>
+    <t>1960.0000</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode Standard (1kV) 1A Surface Mount SMA </t>
+  </si>
+  <si>
+    <t>0.0350</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
+    <t>MZ11-06E151-251RM/10D391</t>
+  </si>
+  <si>
+    <t>Thermistor</t>
+  </si>
+  <si>
+    <t>0.2800</t>
+  </si>
+  <si>
+    <t>5880.0000</t>
+  </si>
+  <si>
+    <t>AO3400</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>0.1200</t>
+  </si>
+  <si>
+    <t>1680.0000</t>
+  </si>
+  <si>
+    <t>MB8S</t>
+  </si>
+  <si>
+    <t>Bridge Rectifiers 0.5A Bridge</t>
+  </si>
+  <si>
+    <t>RC0805JR-073K3L</t>
+  </si>
+  <si>
+    <t>Resistor, 3.3k Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>SMDRI127-330MT</t>
+  </si>
+  <si>
+    <t>FIXED IND 33UH 3A 64.8 MOHM SMD</t>
+  </si>
+  <si>
+    <t>CS80ZU2GA222MYVKA</t>
+  </si>
+  <si>
+    <t>2200pF 440VAC Ceramic Capacitor Z5U Radial, Disc 0.374" Dia (9.50mm)</t>
+  </si>
+  <si>
+    <t>0.0900</t>
+  </si>
+  <si>
+    <t>1260.0000</t>
+  </si>
+  <si>
+    <t>S20K510</t>
+  </si>
+  <si>
+    <t>Varistors 510VAC 10% 20mm StandarD</t>
+  </si>
+  <si>
+    <t>0.5500</t>
+  </si>
+  <si>
+    <t>11550.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-07120RL</t>
+  </si>
+  <si>
+    <t>Resistor, 120 Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>163.7999</t>
+  </si>
+  <si>
+    <t>RC0805JR-0710KL</t>
+  </si>
+  <si>
+    <t>Resistor, 10K Ohm , 5%, 0805 Size, 1/8 W</t>
+  </si>
+  <si>
+    <t>151.2000</t>
+  </si>
+  <si>
+    <t>RC0805JR-074K7L</t>
+  </si>
+  <si>
+    <t>Resistor, 4.7K Ohm , 5%, 0805, 1/8 W</t>
+  </si>
+  <si>
+    <t>189.0000</t>
+  </si>
+  <si>
+    <t>RC0805JR-0722KL</t>
+  </si>
+  <si>
+    <t>Resistor, 22K Ohm 5% Tolerance, 0805 Size, 1/8W</t>
+  </si>
+  <si>
+    <t>SPMZB-8S400RN265</t>
+  </si>
+  <si>
+    <t>PTC 40-80Ohm Imax 0.8A</t>
+  </si>
+  <si>
+    <t>GRM1555C1H271JA01D</t>
+  </si>
+  <si>
+    <t>Ceramic Cap 0402 270p 50V 5% NP0</t>
   </si>
   <si>
     <t>006-21/DT-BS</t>
   </si>
   <si>
-    <t>chip01</t>
+    <t>sanpham01</t>
+  </si>
+  <si>
+    <t>BLUE STAR ELECTRONICS Co., LIMITED</t>
   </si>
   <si>
     <t>2021-10-11</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Đơn Vị Tính</t>
-  </si>
-  <si>
-    <t>AC2010JK-070RL</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>RF SOC 1PHA &amp; 3PHA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>543.5700</t>
+  </si>
+  <si>
+    <t>138066.7800</t>
+  </si>
+  <si>
+    <t>1350.0000</t>
   </si>
 </sst>
 </file>
@@ -434,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J47"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +900,1489 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>7000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>7000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>14000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>14000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>14000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>21000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>7000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>70000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>56000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>322000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>14000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>28000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>28000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>7000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>14000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>14000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>28000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>14000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>35000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>21000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>14000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>354000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>14000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>28000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>14000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>28000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>7000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>28000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>7000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>21000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>14000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>14000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>14000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>7000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>14000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>21000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>91000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>84000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>105000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>21000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>14000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+      <c r="I47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -488,13 +2393,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,6 +2417,82 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>27000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +2503,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -530,24 +2511,464 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B2">
+        <v>14000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>14000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>322000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>14000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>7000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>21000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>6746</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>91000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>28000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>14000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>14000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>21000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>7000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>354000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>14000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>14000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>14000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>105000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>7000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22">
+        <v>84000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>14000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="B24">
+        <v>7000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>14000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>21000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>70000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>28000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>56000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <v>7000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32">
+        <v>14000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>28000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>35000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>14000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>28000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>14000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>28000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>28000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>21000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>7000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>21000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
